--- a/wb_mutlple_func.xlsx
+++ b/wb_mutlple_func.xlsx
@@ -1,35 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/169a633733d5d43b/바탕 화면/my_repository/openpyxl-basic/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="61" documentId="11_7A15C6F99A96538ADCCDCD05C5523DF04D07B98F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE0AD6C1-9E0D-4900-97F9-791C1EF980B6}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView minimized="1" xWindow="1455" yWindow="2430" windowWidth="15300" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>1단</t>
+  </si>
+  <si>
+    <t>2단</t>
+  </si>
+  <si>
+    <t>3단</t>
+  </si>
+  <si>
+    <t>4단</t>
+  </si>
+  <si>
+    <t>5단</t>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>평균</t>
+  </si>
+  <si>
+    <t>최댓값</t>
+  </si>
+  <si>
+    <t>최솟값</t>
+  </si>
+  <si>
+    <t>원본</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셀 서식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자릿수+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자릿수-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국 화폐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="180" formatCode="[Blue][&gt;1]\﻿0;[Red][&lt;1]0.00"/>
+    <numFmt numFmtId="183" formatCode="yyyy&quot;년&quot;\ mm&quot;월&quot;\ dd&quot;일&quot;\ ddd\ \(aaa\)"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -44,84 +141,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="4">
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
+    <cellStyle name="통화 [0]" xfId="2" builtinId="7"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -409,326 +469,361 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1단</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2단</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3단</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>4단</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5단</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="n">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="n">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="n">
+      <c r="H3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>8</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>10</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="B5" t="n">
+      <c r="I4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>9</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>12</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="n">
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J5" s="4">
+        <v>10000</v>
+      </c>
+      <c r="K5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="L5" s="2">
+        <v>10000</v>
+      </c>
+      <c r="M5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>12</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>16</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>20</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" t="n">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>10</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>15</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>20</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>25</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="n">
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>18</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>24</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>30</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="n">
+      <c r="H8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>14</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>21</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>28</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>35</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" t="n">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>16</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>24</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>32</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>40</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="n">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>18</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>27</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>36</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>45</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>합계</t>
-        </is>
+      <c r="I11" s="8">
+        <v>44698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
       </c>
       <c r="B12">
         <f>SUM(B3:B11)</f>
-        <v/>
+        <v>45</v>
       </c>
       <c r="C12">
         <f>SUM(C3:C11)</f>
-        <v/>
+        <v>90</v>
       </c>
       <c r="D12">
         <f>SUM(D3:D11)</f>
-        <v/>
+        <v>135</v>
       </c>
       <c r="E12">
         <f>SUM(E3:E11)</f>
-        <v/>
+        <v>180</v>
       </c>
       <c r="F12">
         <f>SUM(F3:F11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>평균</t>
-        </is>
+        <v>225</v>
+      </c>
+      <c r="I12" s="6">
+        <v>44699</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
       </c>
       <c r="B13">
         <f>AVERAGE(B3:B11)</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="C13">
         <f>AVERAGE(C3:C11)</f>
-        <v/>
+        <v>10</v>
       </c>
       <c r="D13">
         <f>AVERAGE(D3:D11)</f>
-        <v/>
+        <v>15</v>
       </c>
       <c r="E13">
         <f>AVERAGE(E3:E11)</f>
-        <v/>
+        <v>20</v>
       </c>
       <c r="F13">
         <f>AVERAGE(F3:F11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>최댓값</t>
-        </is>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
       </c>
       <c r="B14">
         <f>MAX(B3:B11)</f>
-        <v/>
+        <v>9</v>
       </c>
       <c r="C14">
         <f>MAX(C3:C11)</f>
-        <v/>
+        <v>18</v>
       </c>
       <c r="D14">
         <f>MAX(D3:D11)</f>
-        <v/>
+        <v>27</v>
       </c>
       <c r="E14">
         <f>MAX(E3:E11)</f>
-        <v/>
+        <v>36</v>
       </c>
       <c r="F14">
         <f>MAX(F3:F11)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>최솟값</t>
-        </is>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
       </c>
       <c r="B15">
         <f>MIN(B3:B11)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C15">
         <f>MIN(C3:C11)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="D15">
         <f>MIN(D3:D11)</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E15">
         <f>MIN(E3:E11)</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="F15">
         <f>MIN(F3:F11)</f>
-        <v/>
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>3.14</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>